--- a/SMAA8411 A1 Q2-4 Submission - ST10055763 (K Maharajh).xlsx
+++ b/SMAA8411 A1 Q2-4 Submission - ST10055763 (K Maharajh).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiash\OneDrive\Documents\SMAA8411 Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CE459E-48FD-45D2-A198-17E3265553AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF28948-79F8-41C1-A90E-3BDB21B0A6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{3749FFDF-EFC8-4D51-A944-337CED600082}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3749FFDF-EFC8-4D51-A944-337CED600082}"/>
   </bookViews>
   <sheets>
     <sheet name="Q2" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="315">
   <si>
     <t>stand</t>
   </si>
@@ -1328,6 +1328,15 @@
   <si>
     <t>https://github.com/ST10055763/ST10055763-SMAA8411-A1.git</t>
   </si>
+  <si>
+    <t>Done By:</t>
+  </si>
+  <si>
+    <t>Kiashen Maharajh</t>
+  </si>
+  <si>
+    <t>ST10055763</t>
+  </si>
 </sst>
 </file>
 
@@ -2408,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9D9A5C-8790-4E73-9FF2-C6A20F140F8A}">
   <dimension ref="A1:K184"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5226,7 +5235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DF63D0-2F1F-47D9-A38E-20DAA1472685}">
   <dimension ref="A1:Z468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J64" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U78" sqref="U78"/>
     </sheetView>
   </sheetViews>
@@ -32287,10 +32296,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2BADF5-C35F-4B99-B896-E3602C8BDE5F}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32345,6 +32354,21 @@
         <v>295</v>
       </c>
     </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A11">
     <sortCondition ref="A3:A11"/>
